--- a/biology/Zoologie/Actinopus/Actinopus.xlsx
+++ b/biology/Zoologie/Actinopus/Actinopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actinopus est un genre d'araignées mygalomorphes de la famille des Actinopodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actinopus est un genre d'araignées mygalomorphes de la famille des Actinopodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud et au Panama[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud et au Panama.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Spider Catalog                                (version 25.0, 28/02/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Spider Catalog                                (version 25.0, 28/02/2024) :
 Actinopus anselmoi Miglio, Pérez-Miles &amp; Bonaldo, 2020
 Actinopus apalai Miglio, Pérez-Miles &amp; Bonaldo, 2020
 Actinopus apiacas Miglio, Pérez-Miles &amp; Bonaldo, 2020
@@ -670,12 +686,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Perty en 1833.
-Aussereria[2] a été placé en synonymie par Simon en 1892[3].
-Pachyloscelis[4] a été placé en synonymie par F. O. Pickard-Cambridge en 1896[5].
-Closterochilus[6] et Theragretes[6] ont été placés en synonymie par Raven en 1985[7].
+Aussereria a été placé en synonymie par Simon en 1892.
+Pachyloscelis a été placé en synonymie par F. O. Pickard-Cambridge en 1896.
+Closterochilus et Theragretes ont été placés en synonymie par Raven en 1985.
 </t>
         </is>
       </c>
@@ -704,7 +722,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Perty, 1833 : « Arachnides Brasilienses. » Delectus animalium articulatorum quae in itinere per Braziliam annis 1817 et 1820 jussu et auspiciis Maximiliani Josephi I. Bavariae Regis Augustissimi peracto collegerunt dr. J. B. de Spix et dr. C. F. Ph. de Martius, Monachii, p. 191-209.</t>
         </is>
